--- a/results/pvalue_OFFSIDES_all_pathway_AUPRperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_pathway_AUPRperdrug.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>157.544</t>
+          <t>38.116</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>76.218</t>
+          <t>10.179</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>140.774</t>
+          <t>33.716</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>147.21</t>
+          <t>27.29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-12.367</t>
+          <t>21.103</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
